--- a/Prelim_Data/Central_Valley/Central_Valley_50_90.xlsx
+++ b/Prelim_Data/Central_Valley/Central_Valley_50_90.xlsx
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="AK13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="AK14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2972,7 +2972,7 @@
         <v>10.3632110579479</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1559653515267292</v>
+        <v>0.1559653515267294</v>
       </c>
       <c r="P21" t="n">
         <v>0.76</v>
@@ -3577,7 +3577,7 @@
         <v>2.114714005146707</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0006684848531900507</v>
+        <v>0.0006684848531900506</v>
       </c>
       <c r="P26" t="n">
         <v>0.66</v>
@@ -4300,10 +4300,10 @@
         <v>37.10714285714285</v>
       </c>
       <c r="N32" t="n">
-        <v>5.132217584003299</v>
+        <v>5.1322175840033</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01157511800627543</v>
+        <v>0.01157511800627542</v>
       </c>
       <c r="P32" t="n">
         <v>0.5600000000000001</v>
@@ -4424,7 +4424,7 @@
         <v>9.938234504513574</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03040019100535622</v>
+        <v>0.03040019100535623</v>
       </c>
       <c r="P33" t="n">
         <v>0.86</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="AK36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="AK37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="AK40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="AK41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5634,7 +5634,7 @@
         <v>14.47708333333333</v>
       </c>
       <c r="O43" t="n">
-        <v>0.005877892448927917</v>
+        <v>0.005877892448927921</v>
       </c>
       <c r="P43" t="n">
         <v>0.8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="AK43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="AK44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -6364,7 +6364,7 @@
         <v>12.71792149292149</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0143063429968795</v>
+        <v>0.01430634299687951</v>
       </c>
       <c r="P49" t="n">
         <v>0.74</v>
@@ -6485,7 +6485,7 @@
         <v>10.96412698412698</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01783381014183</v>
+        <v>0.01783381014182999</v>
       </c>
       <c r="P50" t="n">
         <v>0.7</v>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="AK52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="AK60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -8304,7 +8304,7 @@
         <v>7.17699938949939</v>
       </c>
       <c r="O65" t="n">
-        <v>0.005165182076573361</v>
+        <v>0.00516518207657336</v>
       </c>
       <c r="P65" t="n">
         <v>0.52</v>
@@ -8425,7 +8425,7 @@
         <v>7.931666666666668</v>
       </c>
       <c r="O66" t="n">
-        <v>0.005663890535828418</v>
+        <v>0.005663890535828419</v>
       </c>
       <c r="P66" t="n">
         <v>0.7</v>
@@ -8860,7 +8860,7 @@
         </is>
       </c>
       <c r="AK69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8919,7 +8919,7 @@
         <v>0.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.85</v>
+        <v>2.825</v>
       </c>
       <c r="R70" t="n">
         <v>164.4102564102564</v>
@@ -9031,10 +9031,10 @@
         <v>37.31111111111111</v>
       </c>
       <c r="N71" t="n">
-        <v>3.562547251223722</v>
+        <v>3.562547251223723</v>
       </c>
       <c r="O71" t="n">
-        <v>0.003729460387189253</v>
+        <v>0.003729460387189254</v>
       </c>
       <c r="P71" t="n">
         <v>0.9</v>
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="AK73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -9515,10 +9515,10 @@
         <v>38.23529411764706</v>
       </c>
       <c r="N75" t="n">
-        <v>5.498488031576266</v>
+        <v>5.498488031576267</v>
       </c>
       <c r="O75" t="n">
-        <v>0.001274927373175843</v>
+        <v>0.001274927373175842</v>
       </c>
       <c r="P75" t="n">
         <v>0.68</v>
@@ -10002,7 +10002,7 @@
         <v>7.164541245791246</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02058574564297491</v>
+        <v>0.02058574564297492</v>
       </c>
       <c r="P79" t="n">
         <v>0.96</v>
@@ -16169,32 +16169,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003191437664940011</v>
+        <v>0.05016562050620044</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.599243893736921</v>
+        <v>-1.958549057513455</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3257142857142857</v>
+        <v>-0.2586206896551724</v>
       </c>
       <c r="P5" t="n">
-        <v>-399</v>
+        <v>-105</v>
       </c>
       <c r="Q5" t="n">
-        <v>12227.66666666667</v>
+        <v>2819.666666666667</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.3100961538461539</v>
       </c>
       <c r="S5" t="n">
-        <v>1.020833333333333</v>
+        <v>8.341346153846153</v>
       </c>
     </row>
     <row r="6">
@@ -17541,25 +17541,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05453801773492395</v>
+        <v>0.3363974735521627</v>
       </c>
       <c r="N26" t="n">
-        <v>1.922538629569104</v>
+        <v>-0.9613077077685092</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1844897959183673</v>
+        <v>-0.1193181818181818</v>
       </c>
       <c r="P26" t="n">
-        <v>226</v>
+        <v>-63</v>
       </c>
       <c r="Q26" t="n">
-        <v>13696.66666666667</v>
+        <v>4159.666666666667</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01111111111111112</v>
+        <v>-0.008319887784173498</v>
       </c>
       <c r="S26" t="n">
-        <v>1.514141414141414</v>
+        <v>2.258118204546776</v>
       </c>
     </row>
     <row r="27">
@@ -17866,25 +17866,25 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7066360978940087</v>
+        <v>0.7915094652925039</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.3763777325418398</v>
+        <v>-0.2643509998273594</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.03510204081632653</v>
+        <v>-0.02570921985815603</v>
       </c>
       <c r="P31" t="n">
-        <v>-43</v>
+        <v>-29</v>
       </c>
       <c r="Q31" t="n">
-        <v>12452.33333333333</v>
+        <v>11219</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -17924,32 +17924,32 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.004393037740233252</v>
+        <v>0.3373746480667339</v>
       </c>
       <c r="N32" t="n">
-        <v>2.848467229122507</v>
+        <v>-0.9593655015712707</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2661224489795919</v>
+        <v>-0.1280788177339902</v>
       </c>
       <c r="P32" t="n">
-        <v>326</v>
+        <v>-52</v>
       </c>
       <c r="Q32" t="n">
-        <v>13018</v>
+        <v>2826</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05714285714285713</v>
+        <v>-0.05941876750700281</v>
       </c>
       <c r="S32" t="n">
-        <v>1.010714285714286</v>
+        <v>5.94297385620915</v>
       </c>
     </row>
     <row r="33">
@@ -18379,32 +18379,32 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0003132843417101849</v>
+        <v>0.3519057100306646</v>
       </c>
       <c r="N39" t="n">
-        <v>3.604060284419207</v>
+        <v>0.9308991968322524</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2783673469387755</v>
+        <v>0.13</v>
       </c>
       <c r="P39" t="n">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="Q39" t="n">
-        <v>8899.666666666666</v>
+        <v>1666.333333333333</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -19816,25 +19816,25 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8331078035526909</v>
+        <v>0.8095827631119468</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.2107173905934057</v>
+        <v>0.2409643292909423</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.02122448979591837</v>
+        <v>0.026578073089701</v>
       </c>
       <c r="P61" t="n">
-        <v>-26</v>
+        <v>24</v>
       </c>
       <c r="Q61" t="n">
-        <v>14076</v>
+        <v>9110.666666666666</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>0.007017543859649121</v>
       </c>
       <c r="S61" t="n">
-        <v>4.166666666666666</v>
+        <v>5.519298245614036</v>
       </c>
     </row>
     <row r="62">
@@ -20076,25 +20076,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2902409170518832</v>
+        <v>0.8277368747621565</v>
       </c>
       <c r="N65" t="n">
-        <v>1.057593259083416</v>
+        <v>-0.2176050175140125</v>
       </c>
       <c r="O65" t="n">
-        <v>0.09795918367346938</v>
+        <v>-0.03174603174603174</v>
       </c>
       <c r="P65" t="n">
-        <v>120</v>
+        <v>-12</v>
       </c>
       <c r="Q65" t="n">
-        <v>12660.66666666667</v>
+        <v>2555.333333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>-0.01481481481481482</v>
       </c>
       <c r="S65" t="n">
-        <v>2.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -20141,25 +20141,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3592690343585216</v>
+        <v>0.1463622442996033</v>
       </c>
       <c r="N66" t="n">
-        <v>0.9167588229856514</v>
+        <v>-1.452501385187843</v>
       </c>
       <c r="O66" t="n">
-        <v>0.08897959183673469</v>
+        <v>-0.1681681681681682</v>
       </c>
       <c r="P66" t="n">
-        <v>109</v>
+        <v>-112</v>
       </c>
       <c r="Q66" t="n">
-        <v>13878.33333333333</v>
+        <v>5840</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>-0.1060139573070608</v>
       </c>
       <c r="S66" t="n">
-        <v>4.342857142857143</v>
+        <v>8.283251231527094</v>
       </c>
     </row>
     <row r="67">
@@ -20372,25 +20372,25 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0002332676759395635</v>
+        <v>0.0002126871922845108</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.679963132594659</v>
+        <v>-3.703449909656969</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4116059379217274</v>
+        <v>-0.4143049932523617</v>
       </c>
       <c r="G70" t="n">
-        <v>-305</v>
+        <v>-307</v>
       </c>
       <c r="H70" t="n">
-        <v>6824.333333333333</v>
+        <v>6827</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.515625</v>
+        <v>-0.5217391304347826</v>
       </c>
       <c r="J70" t="n">
-        <v>22.046875</v>
+        <v>22.16304347826087</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -20401,25 +20401,25 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0.02158098248157492</v>
+        <v>0.02065253076358409</v>
       </c>
       <c r="N70" t="n">
-        <v>-2.297662903207019</v>
+        <v>-2.314277033323547</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.2236734693877551</v>
+        <v>-0.2253061224489796</v>
       </c>
       <c r="P70" t="n">
-        <v>-274</v>
+        <v>-276</v>
       </c>
       <c r="Q70" t="n">
-        <v>14117.33333333333</v>
+        <v>14120</v>
       </c>
       <c r="R70" t="n">
-        <v>-0.2439024390243902</v>
+        <v>-0.25</v>
       </c>
       <c r="S70" t="n">
-        <v>13.72560975609756</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="71">
@@ -20466,25 +20466,25 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.4264164157388106</v>
+        <v>0.9170221576248359</v>
       </c>
       <c r="N71" t="n">
-        <v>0.7953388578984618</v>
+        <v>0.104185478635438</v>
       </c>
       <c r="O71" t="n">
-        <v>0.07836734693877551</v>
+        <v>0.01159420289855072</v>
       </c>
       <c r="P71" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Q71" t="n">
-        <v>14267.33333333333</v>
+        <v>11147.33333333333</v>
       </c>
       <c r="R71" t="n">
-        <v>0.01515151515151515</v>
+        <v>0.001190476190476186</v>
       </c>
       <c r="S71" t="n">
-        <v>1.993867243867244</v>
+        <v>2.540178571428571</v>
       </c>
     </row>
     <row r="72">
@@ -20726,25 +20726,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3712451811652739</v>
+        <v>0.4056376702457534</v>
       </c>
       <c r="N75" t="n">
-        <v>0.8941433810003863</v>
+        <v>-0.8315948495541449</v>
       </c>
       <c r="O75" t="n">
-        <v>0.08653061224489796</v>
+        <v>-0.09841269841269841</v>
       </c>
       <c r="P75" t="n">
-        <v>106</v>
+        <v>-62</v>
       </c>
       <c r="Q75" t="n">
-        <v>13790</v>
+        <v>5380.666666666667</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>-0.04517770876466531</v>
       </c>
       <c r="S75" t="n">
-        <v>2.35</v>
+        <v>4.665609903381643</v>
       </c>
     </row>
     <row r="76">
@@ -20791,25 +20791,25 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.145394344015835</v>
+        <v>0.7191153342667906</v>
       </c>
       <c r="N76" t="n">
-        <v>1.455993762138921</v>
+        <v>-0.3596413803295871</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1420408163265306</v>
+        <v>-0.04024390243902439</v>
       </c>
       <c r="P76" t="n">
-        <v>174</v>
+        <v>-33</v>
       </c>
       <c r="Q76" t="n">
-        <v>14118</v>
+        <v>7917</v>
       </c>
       <c r="R76" t="n">
-        <v>0.02857142857142857</v>
+        <v>-0.0109775641025641</v>
       </c>
       <c r="S76" t="n">
-        <v>1.383333333333333</v>
+        <v>2.552884615384615</v>
       </c>
     </row>
     <row r="77">
@@ -20921,25 +20921,25 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.7438092563351666</v>
+        <v>0.7981372539669001</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.3268130925078997</v>
+        <v>-0.2557585861466805</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.0326530612244898</v>
+        <v>-0.02705314009661836</v>
       </c>
       <c r="P78" t="n">
-        <v>-40</v>
+        <v>-28</v>
       </c>
       <c r="Q78" t="n">
-        <v>14240.66666666667</v>
+        <v>11144.66666666667</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.004761904761904745</v>
+        <v>-0.007352941176470588</v>
       </c>
       <c r="S78" t="n">
-        <v>5.366666666666666</v>
+        <v>6.415441176470588</v>
       </c>
     </row>
     <row r="79">
@@ -21051,25 +21051,25 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.09460543871683158</v>
+        <v>0.8304218583266509</v>
       </c>
       <c r="N80" t="n">
-        <v>1.671588780248875</v>
+        <v>0.2141605507090119</v>
       </c>
       <c r="O80" t="n">
-        <v>0.1575510204081633</v>
+        <v>0.02988505747126437</v>
       </c>
       <c r="P80" t="n">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="Q80" t="n">
-        <v>13193</v>
+        <v>3139.666666666667</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="S80" t="n">
-        <v>2.416666666666667</v>
+        <v>5.283333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -21181,25 +21181,25 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2107306991254121</v>
+        <v>0.5236941825672736</v>
       </c>
       <c r="N82" t="n">
-        <v>-1.251558734319762</v>
+        <v>0.6376613001696565</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.1208163265306123</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P82" t="n">
-        <v>-148</v>
+        <v>44</v>
       </c>
       <c r="Q82" t="n">
-        <v>13795.33333333333</v>
+        <v>4547.333333333333</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.01470588235294118</v>
+        <v>0.03529411764705883</v>
       </c>
       <c r="S82" t="n">
-        <v>3.360294117647059</v>
+        <v>3.7390756302521</v>
       </c>
     </row>
   </sheetData>
@@ -21550,32 +21550,32 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002049983016475965</v>
+        <v>0.3808184731875461</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.082893795244716</v>
+        <v>-0.8763892264428205</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2783673469387755</v>
+        <v>-0.1157635467980296</v>
       </c>
       <c r="P5" t="n">
-        <v>-341</v>
+        <v>-47</v>
       </c>
       <c r="Q5" t="n">
-        <v>12163</v>
+        <v>2755</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -22915,32 +22915,32 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04440616409089904</v>
+        <v>0.4183732951800732</v>
       </c>
       <c r="N26" t="n">
-        <v>2.01023649926197</v>
+        <v>-0.8092466349951097</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1926530612244898</v>
+        <v>-0.1003787878787879</v>
       </c>
       <c r="P26" t="n">
-        <v>236</v>
+        <v>-53</v>
       </c>
       <c r="Q26" t="n">
-        <v>13666</v>
+        <v>4129</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1111111111111111</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="S26" t="n">
-        <v>9.777777777777779</v>
+        <v>17.23076923076923</v>
       </c>
     </row>
     <row r="27">
@@ -23247,25 +23247,25 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1543902525965808</v>
+        <v>0.1711961397741817</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.424194237344712</v>
+        <v>-1.368370479444599</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1297959183673469</v>
+        <v>-0.1285460992907801</v>
       </c>
       <c r="P31" t="n">
-        <v>-159</v>
+        <v>-145</v>
       </c>
       <c r="Q31" t="n">
-        <v>12307.66666666667</v>
+        <v>11074.33333333333</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -23305,32 +23305,32 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0003727504288726369</v>
+        <v>0.6072965855556409</v>
       </c>
       <c r="N32" t="n">
-        <v>3.558660889366894</v>
+        <v>0.5139362166481446</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3314285714285714</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P32" t="n">
-        <v>406</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="n">
-        <v>12952</v>
+        <v>2760</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.351351351351351</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -23760,32 +23760,32 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3306659971936292</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.9727732764453586</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="P39" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1607.333333333333</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.000287064273355675</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.626701993252568</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.2791836734693878</v>
-      </c>
-      <c r="P39" t="n">
-        <v>342</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>8840.666666666666</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25197,25 +25197,25 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2822893716809043</v>
+        <v>0.4166463826930014</v>
       </c>
       <c r="N61" t="n">
-        <v>-1.075190670097272</v>
+        <v>-0.8122531581214926</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.1044897959183674</v>
+        <v>-0.08637873754152824</v>
       </c>
       <c r="P61" t="n">
-        <v>-128</v>
+        <v>-78</v>
       </c>
       <c r="Q61" t="n">
-        <v>13952</v>
+        <v>8986.666666666666</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -25457,25 +25457,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2582240594183967</v>
+        <v>0.9522762374920219</v>
       </c>
       <c r="N65" t="n">
-        <v>1.130598641849658</v>
+        <v>-0.05984857517200719</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1044897959183674</v>
+        <v>-0.01058201058201058</v>
       </c>
       <c r="P65" t="n">
-        <v>128</v>
+        <v>-4</v>
       </c>
       <c r="Q65" t="n">
-        <v>12618</v>
+        <v>2512.666666666667</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="66">
@@ -25522,25 +25522,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0631360731588444</v>
+        <v>0.9894548608294731</v>
       </c>
       <c r="N66" t="n">
-        <v>1.858232017199795</v>
+        <v>-0.01321675678200343</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1787755102040816</v>
+        <v>-0.003003003003003003</v>
       </c>
       <c r="P66" t="n">
-        <v>219</v>
+        <v>-2</v>
       </c>
       <c r="Q66" t="n">
-        <v>13763</v>
+        <v>5724.666666666667</v>
       </c>
       <c r="R66" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2.592592592592593</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -25847,25 +25847,25 @@
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0.001550159601969581</v>
+        <v>0.005350557452794114</v>
       </c>
       <c r="N71" t="n">
-        <v>3.165125711516159</v>
+        <v>2.785134192734321</v>
       </c>
       <c r="O71" t="n">
-        <v>0.3085714285714286</v>
+        <v>0.2840579710144928</v>
       </c>
       <c r="P71" t="n">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="Q71" t="n">
-        <v>14187.33333333333</v>
+        <v>11067.33333333333</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S71" t="n">
-        <v>4.916666666666667</v>
+        <v>6.785714285714286</v>
       </c>
     </row>
     <row r="72">
@@ -26107,25 +26107,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.07866225402344607</v>
+        <v>0.6021588726858282</v>
       </c>
       <c r="N75" t="n">
-        <v>1.758501279701123</v>
+        <v>0.5212984613601388</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1689795918367347</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="P75" t="n">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q75" t="n">
-        <v>13723</v>
+        <v>5313.666666666667</v>
       </c>
       <c r="R75" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>3.683333333333334</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="76">
@@ -26165,32 +26165,32 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.003224815223211053</v>
+        <v>0.1087367540347022</v>
       </c>
       <c r="N76" t="n">
-        <v>2.945453590145728</v>
+        <v>1.603897018969444</v>
       </c>
       <c r="O76" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.174390243902439</v>
       </c>
       <c r="P76" t="n">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="Q76" t="n">
-        <v>14039.33333333333</v>
+        <v>7838.333333333333</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1096096096096096</v>
       </c>
       <c r="S76" t="n">
-        <v>4.676470588235293</v>
+        <v>7.807807807807808</v>
       </c>
     </row>
     <row r="77">
@@ -26302,19 +26302,19 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.6112954052559787</v>
+        <v>0.6448044792368861</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.5082252211584147</v>
+        <v>-0.4609918124993016</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.04979591836734694</v>
+        <v>-0.04734299516908213</v>
       </c>
       <c r="P78" t="n">
-        <v>-61</v>
+        <v>-49</v>
       </c>
       <c r="Q78" t="n">
-        <v>13937.66666666667</v>
+        <v>10841.66666666667</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -26432,25 +26432,25 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.193000903959736</v>
+        <v>0.5993888518643082</v>
       </c>
       <c r="N80" t="n">
-        <v>1.301752799148745</v>
+        <v>-0.5252795781016084</v>
       </c>
       <c r="O80" t="n">
-        <v>0.1224489795918367</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="P80" t="n">
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="Q80" t="n">
-        <v>13101.33333333333</v>
+        <v>3048</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -26555,32 +26555,32 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02472645476459157</v>
+        <v>0.2881499292551952</v>
       </c>
       <c r="N82" t="n">
-        <v>-2.245649694152688</v>
+        <v>-1.062188919124312</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.2155102040816327</v>
+        <v>-0.1283422459893048</v>
       </c>
       <c r="P82" t="n">
-        <v>-264</v>
+        <v>-72</v>
       </c>
       <c r="Q82" t="n">
-        <v>13716</v>
+        <v>4468</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.05</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="S82" t="n">
-        <v>6.225</v>
+        <v>6.868421052631579</v>
       </c>
     </row>
   </sheetData>
